--- a/BASS_data.xlsx
+++ b/BASS_data.xlsx
@@ -1075,7 +1075,7 @@
     <t>delivery.png</t>
   </si>
   <si>
-    <t>amazon, package, service, package, deliveryman, mail man, postal service, parcel, worker, carry</t>
+    <t>amazon, package, service, package, delivery man, mail man, postal service, parcel, worker, carry</t>
   </si>
   <si>
     <t>demonstration2.png</t>
@@ -3705,10 +3705,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3728,24 +3728,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3765,81 +3780,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -3856,10 +3796,70 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3872,55 +3872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3932,13 +3884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,7 +3908,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3968,7 +4004,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3980,79 +4040,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,7 +4070,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4090,39 +4149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4137,171 +4163,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">

--- a/BASS_data.xlsx
+++ b/BASS_data.xlsx
@@ -151,13 +151,13 @@
     <t>ache.png</t>
   </si>
   <si>
-    <t>pain, back pain, back pain, hurting, exhaustion, back, man, hunch</t>
+    <t>back pain, hurting, exhaustion, man, hunch</t>
   </si>
   <si>
     <t>ache2.png</t>
   </si>
   <si>
-    <t>hurt, achiness, back pain, back pain, pain, back, man, hunch</t>
+    <t>hurt, achiness, back pain, man, hunch</t>
   </si>
   <si>
     <t>acrobat.png</t>
@@ -3706,10 +3706,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3721,23 +3721,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3758,8 +3767,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3772,9 +3782,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3788,24 +3805,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3818,32 +3835,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3851,15 +3852,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3874,7 +3874,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3886,7 +4018,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3898,163 +4048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4078,6 +4078,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4092,17 +4107,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4122,13 +4131,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4144,172 +4157,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4641,8 +4641,8 @@
   <sheetPr/>
   <dimension ref="A1:AG584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/BASS_data.xlsx
+++ b/BASS_data.xlsx
@@ -3705,12 +3705,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3729,9 +3729,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3744,17 +3743,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3768,48 +3758,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3829,20 +3782,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3859,7 +3829,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3874,7 +3874,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3886,13 +3910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3904,13 +3922,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3922,109 +4042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4036,25 +4054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4068,50 +4068,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4142,6 +4103,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4165,124 +4150,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4291,19 +4291,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4315,14 +4315,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12222,10 +12222,10 @@
         <v>-0.151348129340706</v>
       </c>
       <c r="AD75" s="6">
-        <v>41304</v>
+        <v>41532</v>
       </c>
       <c r="AE75" s="6">
-        <v>48696</v>
+        <v>48468</v>
       </c>
       <c r="AF75" t="s">
         <v>189</v>
@@ -15353,10 +15353,10 @@
         <v>0.333176715142529</v>
       </c>
       <c r="AD106" s="6">
-        <v>14269</v>
+        <v>14271</v>
       </c>
       <c r="AE106" s="6">
-        <v>75731</v>
+        <v>75729</v>
       </c>
       <c r="AF106" t="s">
         <v>252</v>
@@ -16666,10 +16666,10 @@
         <v>1.35368198242873</v>
       </c>
       <c r="AD119" s="6">
-        <v>40021</v>
+        <v>40228</v>
       </c>
       <c r="AE119" s="6">
-        <v>49979</v>
+        <v>49772</v>
       </c>
       <c r="AF119" t="s">
         <v>279</v>
@@ -26059,10 +26059,10 @@
         <v>0.764068602715569</v>
       </c>
       <c r="AD212" s="6">
-        <v>26168</v>
+        <v>26492</v>
       </c>
       <c r="AE212" s="6">
-        <v>63832</v>
+        <v>63508</v>
       </c>
       <c r="AF212" t="s">
         <v>466</v>
@@ -35351,10 +35351,10 @@
         <v>-0.399232867344834</v>
       </c>
       <c r="AD304" s="6">
-        <v>19643</v>
+        <v>19802</v>
       </c>
       <c r="AE304" s="6">
-        <v>70357</v>
+        <v>70198</v>
       </c>
       <c r="AF304" t="s">
         <v>659</v>
@@ -36765,10 +36765,10 @@
         <v>1.68196480593804</v>
       </c>
       <c r="AD318" s="6">
-        <v>23135</v>
+        <v>23190</v>
       </c>
       <c r="AE318" s="6">
-        <v>66865</v>
+        <v>66810</v>
       </c>
       <c r="AF318" t="s">
         <v>688</v>
